--- a/inputfiles/Primer_Name_and_Regions.xlsx
+++ b/inputfiles/Primer_Name_and_Regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Home/GitHubProjects/AutoTagsCRISPR/inputfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8F2CCE-7182-0445-BD07-D2F9F05E48A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58DB10-87FA-F447-9571-D332501B29F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="18200" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="8280" windowWidth="21180" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>forward_or_reverse</t>
   </si>
   <si>
-    <t>VAL_or_HAR</t>
-  </si>
-  <si>
     <t>initial_region_start</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>HAL-F</t>
   </si>
   <si>
-    <t>HAR</t>
-  </si>
-  <si>
     <t>HAL-R</t>
   </si>
   <si>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>VAL-R</t>
+  </si>
+  <si>
+    <t>VAL_or_HA</t>
+  </si>
+  <si>
+    <t>HA</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -177,11 +177,9 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -496,15 +494,15 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -518,46 +516,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F2" s="6">
         <v>100</v>
@@ -566,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I2" s="7">
         <v>1000</v>
@@ -581,25 +579,25 @@
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F3" s="6">
         <v>200</v>
       </c>
       <c r="G3" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H3" s="6">
         <v>400</v>
@@ -617,25 +615,25 @@
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6">
-        <v>1669</v>
+        <v>1570</v>
       </c>
       <c r="F4" s="6">
         <v>30</v>
       </c>
       <c r="G4" s="6">
-        <v>1669</v>
+        <v>1570</v>
       </c>
       <c r="H4" s="6">
         <v>30</v>
@@ -653,25 +651,25 @@
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
-        <v>1703</v>
+        <v>1603</v>
       </c>
       <c r="F5" s="6">
         <v>30</v>
       </c>
       <c r="G5" s="6">
-        <v>1703</v>
+        <v>1603</v>
       </c>
       <c r="H5" s="6">
         <v>30</v>
@@ -689,25 +687,25 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6">
-        <v>2603</v>
+        <v>2503</v>
       </c>
       <c r="F6" s="6">
         <v>200</v>
       </c>
       <c r="G6" s="6">
-        <v>2603</v>
+        <v>2503</v>
       </c>
       <c r="H6" s="6">
         <v>400</v>
@@ -725,28 +723,28 @@
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6">
-        <v>2903</v>
+        <v>2803</v>
       </c>
       <c r="F7" s="6">
         <v>100</v>
       </c>
       <c r="G7" s="6">
-        <v>3103</v>
+        <v>3003</v>
       </c>
       <c r="H7" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I7" s="7">
         <v>1000</v>
@@ -760,17 +758,15 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="5"/>
     </row>
   </sheetData>

--- a/inputfiles/Primer_Name_and_Regions.xlsx
+++ b/inputfiles/Primer_Name_and_Regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Home/GitHubProjects/AutoTagsCRISPR/inputfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58DB10-87FA-F447-9571-D332501B29F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FB4684-DD97-F541-BF80-DAAE17EFFB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="8280" windowWidth="21180" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="7300" windowWidth="21180" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>extended_region_start</t>
   </si>
   <si>
-    <t>extended_region_stop</t>
-  </si>
-  <si>
     <t>primers_needed</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>HA</t>
+  </si>
+  <si>
+    <t>extended_region_length</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -528,31 +528,31 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="6">
         <v>300</v>
@@ -579,16 +579,16 @@
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6">
         <v>500</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="6">
         <v>1570</v>
@@ -651,16 +651,16 @@
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6">
         <v>1603</v>
@@ -687,16 +687,16 @@
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6">
         <v>2503</v>
@@ -723,16 +723,16 @@
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="6">
         <v>2803</v>

--- a/inputfiles/Primer_Name_and_Regions.xlsx
+++ b/inputfiles/Primer_Name_and_Regions.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Home/GitHubProjects/AutoTagsCRISPR/inputfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Home/GitHubProjects/AutoTagsCRISPR-1/inputfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FB4684-DD97-F541-BF80-DAAE17EFFB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E041580C-8CE8-6C42-8C35-775FC5C5697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="7300" windowWidth="21180" windowHeight="8500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="24720" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -154,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -172,9 +185,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -494,15 +504,19 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="9" customWidth="1"/>
+    <col min="9" max="11" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -533,10 +547,10 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="4"/>
@@ -561,18 +575,18 @@
         <v>100</v>
       </c>
       <c r="G2" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="6">
         <v>200</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>1000</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>0</v>
       </c>
       <c r="L2" s="4"/>
@@ -597,18 +611,18 @@
         <v>200</v>
       </c>
       <c r="G3" s="6">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H3" s="6">
         <v>400</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>1000</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>1</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>0</v>
       </c>
       <c r="L3" s="4"/>
@@ -638,13 +652,13 @@
       <c r="H4" s="6">
         <v>30</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>1000</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>0</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>1</v>
       </c>
       <c r="L4" s="4"/>
@@ -674,13 +688,13 @@
       <c r="H5" s="6">
         <v>30</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>1000</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5" s="4"/>
@@ -705,18 +719,18 @@
         <v>200</v>
       </c>
       <c r="G6" s="6">
-        <v>2503</v>
+        <v>2403</v>
       </c>
       <c r="H6" s="6">
         <v>400</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>1000</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>1</v>
       </c>
       <c r="L6" s="4"/>
@@ -741,18 +755,18 @@
         <v>100</v>
       </c>
       <c r="G7" s="6">
-        <v>3003</v>
+        <v>2903</v>
       </c>
       <c r="H7" s="6">
         <v>200</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>1000</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>1</v>
       </c>
       <c r="L7" s="4"/>
@@ -760,13 +774,13 @@
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="5"/>
     </row>
   </sheetData>
